--- a/prototype.xlsx
+++ b/prototype.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -31,12 +31,24 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC0303"/>
+        <bgColor rgb="00FC0303"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,9 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -431,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -520,7 +534,7 @@
           <t>Szombat, 4-5 óra</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Szamosi János</t>
         </is>
@@ -735,7 +749,6 @@
           <t>Dr. Imre Sándor, ny. r tanár.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -791,7 +804,6 @@
           <t>Jósika Miklós</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -854,12 +866,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
